--- a/EffortEstimation/PMSheets/PM_06_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_06_06_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA0AC79-5A25-4CC6-ADA6-09DCE3403A10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33562B5-FD7C-49D2-89E7-FBF66517FD12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -70,6 +69,21 @@
   </si>
   <si>
     <t>invited user can response whenever he join or refuse</t>
+  </si>
+  <si>
+    <t>finishing settings page fzncionality</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Haris Jusic</t>
   </si>
 </sst>
 </file>
@@ -421,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +519,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EffortEstimation/PMSheets/PM_06_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_06_06_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Schule\SYP\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33562B5-FD7C-49D2-89E7-FBF66517FD12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045C1A7-6328-4D7E-908A-E29D585FED2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7515" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Haris Jusic</t>
+  </si>
+  <si>
+    <t>Design the Homepage</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -435,19 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="60.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -475,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -486,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -497,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -508,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -519,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -534,6 +540,20 @@
       </c>
       <c r="E7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/EffortEstimation/PMSheets/PM_06_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_06_06_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Schule\SYP\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045C1A7-6328-4D7E-908A-E29D585FED2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B8613B-82E4-4100-9193-98B72CFDE1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
+    <workbookView xWindow="1530" yWindow="1530" windowWidth="17280" windowHeight="9075" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>invited user can response whenever he join or refuse</t>
   </si>
   <si>
-    <t>finishing settings page fzncionality</t>
-  </si>
-  <si>
     <t>5h</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>Finishing settings page funcionality</t>
   </si>
 </sst>
 </file>
@@ -444,16 +444,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -525,35 +525,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/EffortEstimation/PMSheets/PM_06_06_19.xlsx
+++ b/EffortEstimation/PMSheets/PM_06_06_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekt\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\PMSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B8613B-82E4-4100-9193-98B72CFDE1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEE6050-3854-47D7-9E67-646E649E2962}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="1530" windowWidth="17280" windowHeight="9075" xr2:uid="{FF8315E1-2B52-466E-A15F-7C6A6D47BB34}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Finishing settings page funcionality</t>
+  </si>
+  <si>
+    <t>Create event collection</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Back-end work that make it possible to invite user to an event</t>
+  </si>
+  <si>
+    <t>0h</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F2C8F5-78B6-4FD6-848E-31F3B1C084B5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +489,12 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -488,6 +506,12 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -499,6 +523,12 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -521,6 +551,12 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -554,6 +590,37 @@
       </c>
       <c r="E8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
